--- a/data/trans_bre/P1421-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1421-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.121460488949762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.914856497480041</v>
+        <v>7.91485649748004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.024769045714729</v>
@@ -649,7 +649,7 @@
         <v>2.45343219839441</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>2.028673661316697</v>
+        <v>2.028673661316696</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.266482315958865</v>
+        <v>1.340150310968862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.854898390920543</v>
+        <v>2.882816370421295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.121249513916719</v>
+        <v>3.185613961538384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.688075229729866</v>
+        <v>5.596540380493275</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3045358664949404</v>
+        <v>0.360572482938895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.06450403873311</v>
+        <v>1.105764696808625</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.035156157636236</v>
+        <v>0.9854749192488422</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>1.083541554496872</v>
+        <v>1.084496720804878</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.427857630090928</v>
+        <v>4.692084732527864</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.98844731414539</v>
+        <v>5.919450592540892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.389468586694369</v>
+        <v>7.225637580028661</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.13434436302307</v>
+        <v>10.18302253656858</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.054471667775313</v>
+        <v>2.298366497357234</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.651728538484272</v>
+        <v>6.054787399489223</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.8383434639097</v>
+        <v>5.106990281494546</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.571024107927343</v>
+        <v>3.599454451386406</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.695824837021799</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.669938257443635</v>
+        <v>6.669938257443634</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.080257610844908</v>
@@ -749,7 +749,7 @@
         <v>3.372335119913676</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.383875930609626</v>
+        <v>1.383875930609625</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.466528470732663</v>
+        <v>2.568071794853757</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.623002840665647</v>
+        <v>2.610715693428868</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.686314312263859</v>
+        <v>2.725890669106297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.928912756582371</v>
+        <v>4.937866562120964</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9888668332658213</v>
+        <v>1.038525058410913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.642265904020022</v>
+        <v>1.645283930430727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.843804221507681</v>
+        <v>1.839957184119459</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.8668702072025257</v>
+        <v>0.8628512013297579</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.314130371620127</v>
+        <v>5.246841921323225</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.851178970167798</v>
+        <v>5.056207534260198</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.888277263546462</v>
+        <v>4.954379341671197</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.060217020274083</v>
+        <v>8.31689740852454</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.834216887557647</v>
+        <v>3.802889712947186</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.579844702332053</v>
+        <v>5.834739252338835</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.278847055687404</v>
+        <v>5.782644949126456</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.017196471242842</v>
+        <v>2.041584503764075</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3062628553486174</v>
+        <v>0.4832639809083329</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.080386080805819</v>
+        <v>2.936548714630322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.246525070983145</v>
+        <v>1.42953824643914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.668478508529686</v>
+        <v>3.526815950659886</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03097428661092725</v>
+        <v>0.04933289965119367</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2.39845101123298</v>
+        <v>1.608108548190551</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.333986146980708</v>
+        <v>0.4849273840569924</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5969793504725036</v>
+        <v>0.607503437177877</v>
       </c>
     </row>
     <row r="12">
@@ -892,26 +892,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.788269606386306</v>
+        <v>5.912402792625982</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.652271190022895</v>
+        <v>7.973889700664269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.728515682800818</v>
+        <v>5.905910561845877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.765597744210524</v>
+        <v>8.786039660513502</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.539237448229876</v>
+        <v>2.545693470724504</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>6.048154440570512</v>
+        <v>6.533715343073622</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.764696588110661</v>
+        <v>3.034027104918824</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>4.094838380584499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.806086458501317</v>
+        <v>6.80608645850132</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.408251630538734</v>
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.447970098363352</v>
+        <v>2.423151167320943</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.254085013669871</v>
+        <v>3.219106658521022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.219029893377804</v>
+        <v>3.254433827796347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.496161312801855</v>
+        <v>5.679360776459352</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8789519741815138</v>
+        <v>0.8569405149580871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.179070466875444</v>
+        <v>2.140251458462874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.900511825964882</v>
+        <v>1.898651268449993</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.052044398438813</v>
+        <v>1.098441936055946</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.403493296839384</v>
+        <v>4.336309759323199</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.943321728634695</v>
+        <v>5.023843343715367</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.080098665284783</v>
+        <v>5.097416110040475</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.898826914563512</v>
+        <v>8.034333271675724</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.188522408353982</v>
+        <v>2.095033957855034</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.34981215540397</v>
+        <v>5.251114608020083</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.668417122521746</v>
+        <v>4.552228988883983</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.007148633093131</v>
+        <v>2.023084397932497</v>
       </c>
     </row>
     <row r="16">
